--- a/data/CreateLeadData.xlsx
+++ b/data/CreateLeadData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7006dd5d26369897/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupab\IdeaProjects\MavenProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{412418B7-E3E4-4F3C-A6CD-7036406E2196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E4CFC6-F2E6-4CD1-8D92-5D0C46F4E5C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9C404-A7DB-494A-83C3-6506590111B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{E99C7511-9246-424D-859B-0C0B6FEF2975}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{E99C7511-9246-424D-859B-0C0B6FEF2975}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>company</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t>98</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>wipro1</t>
+  </si>
+  <si>
+    <t>tcs1</t>
   </si>
 </sst>
 </file>
@@ -410,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4B2DB7-B7CC-46ED-B6D8-D2A5ECDA935F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,6 +479,77 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32CF72C-422E-4439-9CCD-D07CB51A2C17}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
